--- a/Corote.xlsx
+++ b/Corote.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Insper\2 SEMESTRE\Ciência dos Dados\CD17\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Insper\2 SEMESTRE\Ciência dos Dados\PROJETO 2\CD---Projeto-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1546,7 +1546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +1556,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1598,12 +1606,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="C277" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3631,7 +3640,9 @@
       <c r="A141" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="2"/>
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3641,6 +3652,9 @@
       <c r="A142" t="s">
         <v>139</v>
       </c>
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3650,6 +3664,9 @@
       <c r="A143" t="s">
         <v>140</v>
       </c>
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3659,15 +3676,21 @@
       <c r="A144" t="s">
         <v>141</v>
       </c>
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3677,6 +3700,9 @@
       <c r="A146" t="s">
         <v>143</v>
       </c>
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3686,15 +3712,21 @@
       <c r="A147" t="s">
         <v>144</v>
       </c>
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
+      <c r="B148" s="2">
+        <v>2</v>
+      </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3704,6 +3736,9 @@
       <c r="A149" t="s">
         <v>146</v>
       </c>
+      <c r="B149" s="2">
+        <v>2</v>
+      </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3713,24 +3748,33 @@
       <c r="A150" t="s">
         <v>147</v>
       </c>
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
+      <c r="B152" s="2">
+        <v>2</v>
+      </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3740,15 +3784,21 @@
       <c r="A153" t="s">
         <v>150</v>
       </c>
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
+      <c r="B154" s="2">
+        <v>2</v>
+      </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3758,6 +3808,9 @@
       <c r="A155" t="s">
         <v>152</v>
       </c>
+      <c r="B155" s="2">
+        <v>2</v>
+      </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3767,15 +3820,21 @@
       <c r="A156" t="s">
         <v>153</v>
       </c>
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
+      <c r="B157" s="2">
+        <v>2</v>
+      </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3785,6 +3844,9 @@
       <c r="A158" t="s">
         <v>155</v>
       </c>
+      <c r="B158" s="2">
+        <v>2</v>
+      </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3794,6 +3856,9 @@
       <c r="A159" t="s">
         <v>156</v>
       </c>
+      <c r="B159" s="2">
+        <v>2</v>
+      </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3803,6 +3868,9 @@
       <c r="A160" t="s">
         <v>157</v>
       </c>
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3812,15 +3880,21 @@
       <c r="A161" t="s">
         <v>158</v>
       </c>
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
+      <c r="B162" s="2">
+        <v>2</v>
+      </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3830,6 +3904,9 @@
       <c r="A163" t="s">
         <v>160</v>
       </c>
+      <c r="B163" s="2">
+        <v>2</v>
+      </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3839,6 +3916,9 @@
       <c r="A164" t="s">
         <v>161</v>
       </c>
+      <c r="B164" s="2">
+        <v>2</v>
+      </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3848,6 +3928,9 @@
       <c r="A165" t="s">
         <v>162</v>
       </c>
+      <c r="B165" s="2">
+        <v>2</v>
+      </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3857,15 +3940,21 @@
       <c r="A166" t="s">
         <v>163</v>
       </c>
+      <c r="B166" s="2">
+        <v>1</v>
+      </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
+      <c r="B167" s="2">
+        <v>2</v>
+      </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3875,6 +3964,9 @@
       <c r="A168" t="s">
         <v>165</v>
       </c>
+      <c r="B168" s="2">
+        <v>2</v>
+      </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3884,6 +3976,9 @@
       <c r="A169" t="s">
         <v>166</v>
       </c>
+      <c r="B169" s="2">
+        <v>2</v>
+      </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3893,6 +3988,9 @@
       <c r="A170" t="s">
         <v>167</v>
       </c>
+      <c r="B170" s="2">
+        <v>2</v>
+      </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3902,6 +4000,9 @@
       <c r="A171" t="s">
         <v>168</v>
       </c>
+      <c r="B171" s="2">
+        <v>2</v>
+      </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3911,15 +4012,21 @@
       <c r="A172" t="s">
         <v>169</v>
       </c>
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
+      <c r="B173" s="2">
+        <v>2</v>
+      </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3929,6 +4036,9 @@
       <c r="A174" t="s">
         <v>171</v>
       </c>
+      <c r="B174" s="2">
+        <v>2</v>
+      </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3938,6 +4048,9 @@
       <c r="A175" t="s">
         <v>172</v>
       </c>
+      <c r="B175" s="2">
+        <v>2</v>
+      </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3947,15 +4060,21 @@
       <c r="A176" t="s">
         <v>173</v>
       </c>
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
+      <c r="B177" s="2">
+        <v>2</v>
+      </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3965,15 +4084,21 @@
       <c r="A178" t="s">
         <v>175</v>
       </c>
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
+      <c r="B179" s="2">
+        <v>2</v>
+      </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3983,6 +4108,9 @@
       <c r="A180" t="s">
         <v>177</v>
       </c>
+      <c r="B180" s="2">
+        <v>2</v>
+      </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -3992,6 +4120,9 @@
       <c r="A181" t="s">
         <v>178</v>
       </c>
+      <c r="B181" s="2">
+        <v>2</v>
+      </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -4001,60 +4132,81 @@
       <c r="A182" t="s">
         <v>179</v>
       </c>
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
+      <c r="B184" s="2">
+        <v>1</v>
+      </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
+      <c r="B185" s="2">
+        <v>1</v>
+      </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
+      <c r="B187" s="2">
+        <v>1</v>
+      </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
+      <c r="B188" s="2">
+        <v>2</v>
+      </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -4064,6 +4216,9 @@
       <c r="A189" t="s">
         <v>186</v>
       </c>
+      <c r="B189" s="2">
+        <v>2</v>
+      </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -4073,6 +4228,9 @@
       <c r="A190" t="s">
         <v>187</v>
       </c>
+      <c r="B190" s="2">
+        <v>2</v>
+      </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -4082,6 +4240,9 @@
       <c r="A191" t="s">
         <v>188</v>
       </c>
+      <c r="B191" s="2">
+        <v>2</v>
+      </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -4091,6 +4252,9 @@
       <c r="A192" t="s">
         <v>189</v>
       </c>
+      <c r="B192" s="2">
+        <v>2</v>
+      </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -4100,6 +4264,9 @@
       <c r="A193" t="s">
         <v>190</v>
       </c>
+      <c r="B193" s="2">
+        <v>2</v>
+      </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
@@ -4109,6 +4276,9 @@
       <c r="A194" t="s">
         <v>191</v>
       </c>
+      <c r="B194" s="2">
+        <v>2</v>
+      </c>
       <c r="C194" t="str">
         <f t="shared" ref="C194:C257" si="3" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
         <v>IRRELEVANTE</v>
@@ -4118,6 +4288,9 @@
       <c r="A195" t="s">
         <v>192</v>
       </c>
+      <c r="B195" s="2">
+        <v>2</v>
+      </c>
       <c r="C195" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4127,6 +4300,9 @@
       <c r="A196" t="s">
         <v>193</v>
       </c>
+      <c r="B196" s="2">
+        <v>2</v>
+      </c>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4136,15 +4312,21 @@
       <c r="A197" t="s">
         <v>95</v>
       </c>
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>194</v>
       </c>
+      <c r="B198" s="2">
+        <v>2</v>
+      </c>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4154,6 +4336,9 @@
       <c r="A199" t="s">
         <v>195</v>
       </c>
+      <c r="B199" s="2">
+        <v>2</v>
+      </c>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4163,6 +4348,9 @@
       <c r="A200" t="s">
         <v>196</v>
       </c>
+      <c r="B200" s="2">
+        <v>2</v>
+      </c>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4172,6 +4360,9 @@
       <c r="A201" t="s">
         <v>197</v>
       </c>
+      <c r="B201" s="2">
+        <v>2</v>
+      </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4181,6 +4372,9 @@
       <c r="A202" t="s">
         <v>198</v>
       </c>
+      <c r="B202" s="2">
+        <v>2</v>
+      </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4190,6 +4384,9 @@
       <c r="A203" t="s">
         <v>199</v>
       </c>
+      <c r="B203" s="2">
+        <v>2</v>
+      </c>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4199,6 +4396,9 @@
       <c r="A204" t="s">
         <v>200</v>
       </c>
+      <c r="B204" s="2">
+        <v>2</v>
+      </c>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4208,6 +4408,9 @@
       <c r="A205" t="s">
         <v>201</v>
       </c>
+      <c r="B205" s="2">
+        <v>2</v>
+      </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4217,15 +4420,21 @@
       <c r="A206" t="s">
         <v>202</v>
       </c>
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>203</v>
       </c>
+      <c r="B207" s="2">
+        <v>2</v>
+      </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4235,15 +4444,21 @@
       <c r="A208" t="s">
         <v>204</v>
       </c>
+      <c r="B208" s="2">
+        <v>1</v>
+      </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>205</v>
       </c>
+      <c r="B209" s="2">
+        <v>2</v>
+      </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4253,15 +4468,21 @@
       <c r="A210" t="s">
         <v>206</v>
       </c>
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
       <c r="C210" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>207</v>
       </c>
+      <c r="B211" s="2">
+        <v>2</v>
+      </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4271,6 +4492,9 @@
       <c r="A212" t="s">
         <v>208</v>
       </c>
+      <c r="B212" s="3">
+        <v>2</v>
+      </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4280,24 +4504,33 @@
       <c r="A213" t="s">
         <v>209</v>
       </c>
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>210</v>
       </c>
+      <c r="B214" s="2">
+        <v>1</v>
+      </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>211</v>
       </c>
+      <c r="B215" s="2">
+        <v>2</v>
+      </c>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4307,6 +4540,9 @@
       <c r="A216" t="s">
         <v>212</v>
       </c>
+      <c r="B216" s="2">
+        <v>2</v>
+      </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4316,15 +4552,21 @@
       <c r="A217" t="s">
         <v>213</v>
       </c>
+      <c r="B217" s="2">
+        <v>1</v>
+      </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>214</v>
       </c>
+      <c r="B218" s="2">
+        <v>2</v>
+      </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4334,6 +4576,9 @@
       <c r="A219" t="s">
         <v>215</v>
       </c>
+      <c r="B219" s="2">
+        <v>2</v>
+      </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4343,6 +4588,9 @@
       <c r="A220" t="s">
         <v>216</v>
       </c>
+      <c r="B220" s="2">
+        <v>2</v>
+      </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4352,6 +4600,9 @@
       <c r="A221" t="s">
         <v>217</v>
       </c>
+      <c r="B221" s="2">
+        <v>2</v>
+      </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4361,6 +4612,9 @@
       <c r="A222" t="s">
         <v>218</v>
       </c>
+      <c r="B222" s="2">
+        <v>2</v>
+      </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4370,15 +4624,21 @@
       <c r="A223" t="s">
         <v>219</v>
       </c>
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>220</v>
       </c>
+      <c r="B224" s="2">
+        <v>2</v>
+      </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4388,6 +4648,9 @@
       <c r="A225" t="s">
         <v>221</v>
       </c>
+      <c r="B225" s="2">
+        <v>2</v>
+      </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4397,6 +4660,9 @@
       <c r="A226" t="s">
         <v>222</v>
       </c>
+      <c r="B226" s="2">
+        <v>2</v>
+      </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4406,6 +4672,9 @@
       <c r="A227" t="s">
         <v>223</v>
       </c>
+      <c r="B227" s="2">
+        <v>2</v>
+      </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4415,15 +4684,21 @@
       <c r="A228" t="s">
         <v>224</v>
       </c>
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>225</v>
       </c>
+      <c r="B229" s="2">
+        <v>2</v>
+      </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4433,6 +4708,9 @@
       <c r="A230" t="s">
         <v>226</v>
       </c>
+      <c r="B230" s="2">
+        <v>2</v>
+      </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4442,24 +4720,33 @@
       <c r="A231" t="s">
         <v>227</v>
       </c>
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>228</v>
       </c>
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>229</v>
       </c>
+      <c r="B233" s="2">
+        <v>2</v>
+      </c>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4469,6 +4756,9 @@
       <c r="A234" t="s">
         <v>230</v>
       </c>
+      <c r="B234" s="2">
+        <v>2</v>
+      </c>
       <c r="C234" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4478,15 +4768,21 @@
       <c r="A235" t="s">
         <v>115</v>
       </c>
+      <c r="B235" s="2">
+        <v>1</v>
+      </c>
       <c r="C235" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>231</v>
       </c>
+      <c r="B236" s="2">
+        <v>2</v>
+      </c>
       <c r="C236" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4496,6 +4792,9 @@
       <c r="A237" t="s">
         <v>232</v>
       </c>
+      <c r="B237" s="2">
+        <v>2</v>
+      </c>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4505,6 +4804,9 @@
       <c r="A238" t="s">
         <v>233</v>
       </c>
+      <c r="B238" s="2">
+        <v>2</v>
+      </c>
       <c r="C238" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4514,6 +4816,9 @@
       <c r="A239" t="s">
         <v>234</v>
       </c>
+      <c r="B239" s="2">
+        <v>2</v>
+      </c>
       <c r="C239" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4523,6 +4828,9 @@
       <c r="A240" t="s">
         <v>235</v>
       </c>
+      <c r="B240" s="2">
+        <v>2</v>
+      </c>
       <c r="C240" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4532,15 +4840,21 @@
       <c r="A241" t="s">
         <v>236</v>
       </c>
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>105</v>
       </c>
+      <c r="B242" s="2">
+        <v>2</v>
+      </c>
       <c r="C242" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4550,6 +4864,9 @@
       <c r="A243" t="s">
         <v>237</v>
       </c>
+      <c r="B243" s="2">
+        <v>2</v>
+      </c>
       <c r="C243" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4559,15 +4876,21 @@
       <c r="A244" t="s">
         <v>238</v>
       </c>
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
       <c r="C244" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>239</v>
       </c>
+      <c r="B245" s="2">
+        <v>2</v>
+      </c>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4577,6 +4900,9 @@
       <c r="A246" t="s">
         <v>240</v>
       </c>
+      <c r="B246" s="2">
+        <v>2</v>
+      </c>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4586,15 +4912,21 @@
       <c r="A247" t="s">
         <v>241</v>
       </c>
+      <c r="B247" s="2">
+        <v>1</v>
+      </c>
       <c r="C247" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>242</v>
       </c>
+      <c r="B248" s="2">
+        <v>2</v>
+      </c>
       <c r="C248" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4604,6 +4936,9 @@
       <c r="A249" t="s">
         <v>243</v>
       </c>
+      <c r="B249" s="2">
+        <v>2</v>
+      </c>
       <c r="C249" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4613,15 +4948,21 @@
       <c r="A250" t="s">
         <v>244</v>
       </c>
+      <c r="B250" s="2">
+        <v>1</v>
+      </c>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>245</v>
       </c>
+      <c r="B251" s="2">
+        <v>2</v>
+      </c>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4631,6 +4972,9 @@
       <c r="A252" t="s">
         <v>246</v>
       </c>
+      <c r="B252" s="2">
+        <v>2</v>
+      </c>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4640,15 +4984,21 @@
       <c r="A253" t="s">
         <v>247</v>
       </c>
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>248</v>
       </c>
+      <c r="B254" s="2">
+        <v>2</v>
+      </c>
       <c r="C254" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4658,6 +5008,9 @@
       <c r="A255" t="s">
         <v>86</v>
       </c>
+      <c r="B255" s="2">
+        <v>2</v>
+      </c>
       <c r="C255" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4667,6 +5020,9 @@
       <c r="A256" t="s">
         <v>249</v>
       </c>
+      <c r="B256" s="2">
+        <v>2</v>
+      </c>
       <c r="C256" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
@@ -4676,15 +5032,21 @@
       <c r="A257" t="s">
         <v>250</v>
       </c>
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
       <c r="C257" t="str">
         <f t="shared" si="3"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>251</v>
       </c>
+      <c r="B258" s="2">
+        <v>2</v>
+      </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C301" si="4" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
         <v>IRRELEVANTE</v>
@@ -4694,24 +5056,33 @@
       <c r="A259" t="s">
         <v>252</v>
       </c>
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
       <c r="C259" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>253</v>
       </c>
+      <c r="B260" s="2">
+        <v>1</v>
+      </c>
       <c r="C260" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>254</v>
       </c>
+      <c r="B261" s="2">
+        <v>2</v>
+      </c>
       <c r="C261" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4721,6 +5092,9 @@
       <c r="A262" t="s">
         <v>255</v>
       </c>
+      <c r="B262" s="2">
+        <v>2</v>
+      </c>
       <c r="C262" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4730,15 +5104,21 @@
       <c r="A263" t="s">
         <v>256</v>
       </c>
+      <c r="B263" s="2">
+        <v>1</v>
+      </c>
       <c r="C263" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>257</v>
       </c>
+      <c r="B264" s="2">
+        <v>2</v>
+      </c>
       <c r="C264" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4748,6 +5128,9 @@
       <c r="A265" t="s">
         <v>258</v>
       </c>
+      <c r="B265" s="2">
+        <v>2</v>
+      </c>
       <c r="C265" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4757,6 +5140,9 @@
       <c r="A266" t="s">
         <v>259</v>
       </c>
+      <c r="B266" s="2">
+        <v>2</v>
+      </c>
       <c r="C266" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4766,6 +5152,9 @@
       <c r="A267" t="s">
         <v>260</v>
       </c>
+      <c r="B267" s="2">
+        <v>2</v>
+      </c>
       <c r="C267" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4775,6 +5164,9 @@
       <c r="A268" t="s">
         <v>261</v>
       </c>
+      <c r="B268" s="2">
+        <v>2</v>
+      </c>
       <c r="C268" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4784,6 +5176,9 @@
       <c r="A269" t="s">
         <v>234</v>
       </c>
+      <c r="B269" s="2">
+        <v>2</v>
+      </c>
       <c r="C269" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4793,6 +5188,9 @@
       <c r="A270" t="s">
         <v>262</v>
       </c>
+      <c r="B270" s="2">
+        <v>2</v>
+      </c>
       <c r="C270" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4802,6 +5200,9 @@
       <c r="A271" t="s">
         <v>263</v>
       </c>
+      <c r="B271" s="2">
+        <v>2</v>
+      </c>
       <c r="C271" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4811,15 +5212,21 @@
       <c r="A272" t="s">
         <v>264</v>
       </c>
+      <c r="B272" s="2">
+        <v>1</v>
+      </c>
       <c r="C272" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>265</v>
       </c>
+      <c r="B273" s="2">
+        <v>2</v>
+      </c>
       <c r="C273" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4829,6 +5236,9 @@
       <c r="A274" t="s">
         <v>266</v>
       </c>
+      <c r="B274" s="2">
+        <v>2</v>
+      </c>
       <c r="C274" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4838,42 +5248,57 @@
       <c r="A275" t="s">
         <v>267</v>
       </c>
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
       <c r="C275" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>268</v>
       </c>
+      <c r="B276" s="2">
+        <v>1</v>
+      </c>
       <c r="C276" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>269</v>
       </c>
+      <c r="B277" s="2">
+        <v>1</v>
+      </c>
       <c r="C277" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>270</v>
       </c>
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
       <c r="C278" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>271</v>
       </c>
+      <c r="B279" s="2">
+        <v>2</v>
+      </c>
       <c r="C279" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4883,15 +5308,21 @@
       <c r="A280" t="s">
         <v>272</v>
       </c>
+      <c r="B280" s="2">
+        <v>1</v>
+      </c>
       <c r="C280" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>273</v>
       </c>
+      <c r="B281" s="2">
+        <v>2</v>
+      </c>
       <c r="C281" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4901,6 +5332,9 @@
       <c r="A282" t="s">
         <v>274</v>
       </c>
+      <c r="B282" s="2">
+        <v>2</v>
+      </c>
       <c r="C282" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4910,6 +5344,9 @@
       <c r="A283" t="s">
         <v>100</v>
       </c>
+      <c r="B283" s="2">
+        <v>2</v>
+      </c>
       <c r="C283" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4919,6 +5356,9 @@
       <c r="A284" t="s">
         <v>275</v>
       </c>
+      <c r="B284" s="2">
+        <v>2</v>
+      </c>
       <c r="C284" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4928,6 +5368,9 @@
       <c r="A285" t="s">
         <v>276</v>
       </c>
+      <c r="B285" s="2">
+        <v>2</v>
+      </c>
       <c r="C285" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4937,15 +5380,21 @@
       <c r="A286" t="s">
         <v>277</v>
       </c>
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
       <c r="C286" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>278</v>
       </c>
+      <c r="B287" s="2">
+        <v>2</v>
+      </c>
       <c r="C287" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4955,6 +5404,9 @@
       <c r="A288" t="s">
         <v>279</v>
       </c>
+      <c r="B288" s="2">
+        <v>2</v>
+      </c>
       <c r="C288" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4964,6 +5416,9 @@
       <c r="A289" t="s">
         <v>280</v>
       </c>
+      <c r="B289" s="2">
+        <v>2</v>
+      </c>
       <c r="C289" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4973,6 +5428,9 @@
       <c r="A290" t="s">
         <v>281</v>
       </c>
+      <c r="B290" s="2">
+        <v>2</v>
+      </c>
       <c r="C290" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -4982,15 +5440,21 @@
       <c r="A291" t="s">
         <v>282</v>
       </c>
+      <c r="B291" s="2">
+        <v>1</v>
+      </c>
       <c r="C291" t="str">
         <f t="shared" si="4"/>
-        <v>IRRELEVANTE</v>
+        <v>RELEVANTE</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>283</v>
       </c>
+      <c r="B292" s="2">
+        <v>2</v>
+      </c>
       <c r="C292" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5000,6 +5464,9 @@
       <c r="A293" t="s">
         <v>284</v>
       </c>
+      <c r="B293" s="2">
+        <v>2</v>
+      </c>
       <c r="C293" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5009,6 +5476,9 @@
       <c r="A294" t="s">
         <v>285</v>
       </c>
+      <c r="B294" s="2">
+        <v>2</v>
+      </c>
       <c r="C294" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5018,6 +5488,9 @@
       <c r="A295" t="s">
         <v>286</v>
       </c>
+      <c r="B295" s="2">
+        <v>2</v>
+      </c>
       <c r="C295" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5027,6 +5500,9 @@
       <c r="A296" t="s">
         <v>287</v>
       </c>
+      <c r="B296" s="2">
+        <v>2</v>
+      </c>
       <c r="C296" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5036,6 +5512,9 @@
       <c r="A297" t="s">
         <v>288</v>
       </c>
+      <c r="B297" s="2">
+        <v>2</v>
+      </c>
       <c r="C297" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5045,6 +5524,9 @@
       <c r="A298" t="s">
         <v>289</v>
       </c>
+      <c r="B298" s="2">
+        <v>2</v>
+      </c>
       <c r="C298" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5054,6 +5536,9 @@
       <c r="A299" t="s">
         <v>290</v>
       </c>
+      <c r="B299" s="2">
+        <v>2</v>
+      </c>
       <c r="C299" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5063,6 +5548,9 @@
       <c r="A300" t="s">
         <v>291</v>
       </c>
+      <c r="B300" s="2">
+        <v>2</v>
+      </c>
       <c r="C300" t="str">
         <f t="shared" si="4"/>
         <v>IRRELEVANTE</v>
@@ -5071,6 +5559,9 @@
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>281</v>
+      </c>
+      <c r="B301" s="2">
+        <v>2</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="4"/>
@@ -5085,1015 +5576,2425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="125.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" t="str">
+        <f xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C129" si="1" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" ref="C130:C193" si="2" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="2"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="2"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" ref="C194:C257" si="3" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="3"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="3"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="3"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="3"/>
+        <v>IRRELEVANTE</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="3"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="3"/>
+        <v>RELEVANTE</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>478</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="3"/>
+        <v>IRRELEVANTE</v>
       </c>
     </row>
   </sheetData>

--- a/Corote.xlsx
+++ b/Corote.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="480">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1541,12 +1541,15 @@
   <si>
     <t>tentando esconder da minha mae a tatoo "team corote" q ta no meu peito</t>
   </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,16 +1573,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1602,17 +1618,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1953,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
       <selection activeCell="C277" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -5578,23 +5618,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="125.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" t="str">
-        <f xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
-        <v>IRRELEVANTE</v>
+      <c r="C1" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5604,7 +5643,7 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="4" t="str">
         <f t="shared" ref="C2:C65" si="0" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
         <v>IRRELEVANTE</v>
       </c>
@@ -5616,7 +5655,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5628,7 +5667,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5640,7 +5679,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5652,7 +5691,7 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5664,7 +5703,7 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5676,7 +5715,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5688,7 +5727,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5700,7 +5739,7 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5712,7 +5751,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5724,7 +5763,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5736,7 +5775,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5748,7 +5787,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5760,7 +5799,7 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5772,7 +5811,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5784,7 +5823,7 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5796,7 +5835,7 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5808,7 +5847,7 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5820,7 +5859,7 @@
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5832,7 +5871,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5844,7 +5883,7 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5856,7 +5895,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5868,7 +5907,7 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5880,7 +5919,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5892,7 +5931,7 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5904,7 +5943,7 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5916,7 +5955,7 @@
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5928,7 +5967,7 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5940,7 +5979,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -5952,7 +5991,7 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5964,7 +6003,7 @@
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5976,7 +6015,7 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -5988,7 +6027,7 @@
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6000,7 +6039,7 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6012,7 +6051,7 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6024,7 +6063,7 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6036,7 +6075,7 @@
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6048,7 +6087,7 @@
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6060,7 +6099,7 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6072,7 +6111,7 @@
       <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6084,7 +6123,7 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6096,7 +6135,7 @@
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6108,7 +6147,7 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6120,7 +6159,7 @@
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6132,7 +6171,7 @@
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6144,7 +6183,7 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6156,7 +6195,7 @@
       <c r="B48">
         <v>2</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6168,7 +6207,7 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6180,7 +6219,7 @@
       <c r="B50">
         <v>2</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6192,7 +6231,7 @@
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6204,7 +6243,7 @@
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6216,7 +6255,7 @@
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6228,7 +6267,7 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6240,7 +6279,7 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6252,7 +6291,7 @@
       <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6264,7 +6303,7 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6276,7 +6315,7 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6288,7 +6327,7 @@
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6300,7 +6339,7 @@
       <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6312,7 +6351,7 @@
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6324,7 +6363,7 @@
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6336,7 +6375,7 @@
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6348,7 +6387,7 @@
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RELEVANTE</v>
       </c>
@@ -6360,7 +6399,7 @@
       <c r="B65">
         <v>2</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C65" s="5" t="str">
         <f t="shared" si="0"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6372,7 +6411,7 @@
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66" s="5" t="str">
         <f t="shared" ref="C66:C129" si="1" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
         <v>IRRELEVANTE</v>
       </c>
@@ -6384,7 +6423,7 @@
       <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6396,7 +6435,7 @@
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6408,7 +6447,7 @@
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6420,7 +6459,7 @@
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6432,7 +6471,7 @@
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6444,7 +6483,7 @@
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6456,7 +6495,7 @@
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6468,7 +6507,7 @@
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6480,7 +6519,7 @@
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6492,7 +6531,7 @@
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6504,7 +6543,7 @@
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6516,7 +6555,7 @@
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6528,7 +6567,7 @@
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C79" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6540,7 +6579,7 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6552,7 +6591,7 @@
       <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6564,7 +6603,7 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C82" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6576,7 +6615,7 @@
       <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C83" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6588,7 +6627,7 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6600,7 +6639,7 @@
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6612,7 +6651,7 @@
       <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6624,7 +6663,7 @@
       <c r="B87">
         <v>2</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6636,7 +6675,7 @@
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6648,7 +6687,7 @@
       <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6660,7 +6699,7 @@
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C90" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6672,7 +6711,7 @@
       <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6684,7 +6723,7 @@
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C92" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6696,7 +6735,7 @@
       <c r="B93">
         <v>2</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C93" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6708,7 +6747,7 @@
       <c r="B94">
         <v>2</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C94" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6720,7 +6759,7 @@
       <c r="B95">
         <v>2</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C95" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6732,7 +6771,7 @@
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C96" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6744,7 +6783,7 @@
       <c r="B97">
         <v>2</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C97" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6756,7 +6795,7 @@
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C98" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6768,7 +6807,7 @@
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C99" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6780,7 +6819,7 @@
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C100" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6792,7 +6831,7 @@
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C101" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6804,7 +6843,7 @@
       <c r="B102">
         <v>2</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C102" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6816,7 +6855,7 @@
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C103" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6828,7 +6867,7 @@
       <c r="B104">
         <v>2</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C104" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6840,7 +6879,7 @@
       <c r="B105">
         <v>2</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C105" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6852,7 +6891,7 @@
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C106" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6864,7 +6903,7 @@
       <c r="B107">
         <v>2</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C107" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6876,7 +6915,7 @@
       <c r="B108">
         <v>2</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C108" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6888,7 +6927,7 @@
       <c r="B109">
         <v>2</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C109" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6900,7 +6939,7 @@
       <c r="B110">
         <v>2</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C110" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6912,7 +6951,7 @@
       <c r="B111">
         <v>2</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C111" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6924,7 +6963,7 @@
       <c r="B112">
         <v>2</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C112" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6936,7 +6975,7 @@
       <c r="B113">
         <v>2</v>
       </c>
-      <c r="C113" t="str">
+      <c r="C113" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6948,7 +6987,7 @@
       <c r="B114">
         <v>2</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C114" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6960,7 +6999,7 @@
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C115" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6972,7 +7011,7 @@
       <c r="B116">
         <v>2</v>
       </c>
-      <c r="C116" t="str">
+      <c r="C116" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -6984,7 +7023,7 @@
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" t="str">
+      <c r="C117" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -6996,7 +7035,7 @@
       <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118" t="str">
+      <c r="C118" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -7008,7 +7047,7 @@
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" t="str">
+      <c r="C119" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -7020,7 +7059,7 @@
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120" t="str">
+      <c r="C120" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7032,7 +7071,7 @@
       <c r="B121">
         <v>1</v>
       </c>
-      <c r="C121" t="str">
+      <c r="C121" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -7044,7 +7083,7 @@
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122" t="str">
+      <c r="C122" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -7056,7 +7095,7 @@
       <c r="B123">
         <v>2</v>
       </c>
-      <c r="C123" t="str">
+      <c r="C123" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7068,7 +7107,7 @@
       <c r="B124">
         <v>2</v>
       </c>
-      <c r="C124" t="str">
+      <c r="C124" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7080,7 +7119,7 @@
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125" t="str">
+      <c r="C125" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7092,7 +7131,7 @@
       <c r="B126">
         <v>2</v>
       </c>
-      <c r="C126" t="str">
+      <c r="C126" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7104,7 +7143,7 @@
       <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127" t="str">
+      <c r="C127" s="5" t="str">
         <f t="shared" si="1"/>
         <v>RELEVANTE</v>
       </c>
@@ -7116,7 +7155,7 @@
       <c r="B128">
         <v>2</v>
       </c>
-      <c r="C128" t="str">
+      <c r="C128" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7128,7 +7167,7 @@
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="C129" t="str">
+      <c r="C129" s="5" t="str">
         <f t="shared" si="1"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7140,7 +7179,7 @@
       <c r="B130">
         <v>2</v>
       </c>
-      <c r="C130" t="str">
+      <c r="C130" s="5" t="str">
         <f t="shared" ref="C130:C193" si="2" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
         <v>IRRELEVANTE</v>
       </c>
@@ -7152,7 +7191,7 @@
       <c r="B131">
         <v>2</v>
       </c>
-      <c r="C131" t="str">
+      <c r="C131" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7164,7 +7203,7 @@
       <c r="B132">
         <v>2</v>
       </c>
-      <c r="C132" t="str">
+      <c r="C132" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7176,7 +7215,7 @@
       <c r="B133">
         <v>2</v>
       </c>
-      <c r="C133" t="str">
+      <c r="C133" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7188,7 +7227,7 @@
       <c r="B134">
         <v>2</v>
       </c>
-      <c r="C134" t="str">
+      <c r="C134" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7200,7 +7239,7 @@
       <c r="B135">
         <v>2</v>
       </c>
-      <c r="C135" t="str">
+      <c r="C135" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7212,7 +7251,7 @@
       <c r="B136">
         <v>2</v>
       </c>
-      <c r="C136" t="str">
+      <c r="C136" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7224,7 +7263,7 @@
       <c r="B137">
         <v>2</v>
       </c>
-      <c r="C137" t="str">
+      <c r="C137" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7236,7 +7275,7 @@
       <c r="B138">
         <v>2</v>
       </c>
-      <c r="C138" t="str">
+      <c r="C138" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7248,7 +7287,7 @@
       <c r="B139">
         <v>2</v>
       </c>
-      <c r="C139" t="str">
+      <c r="C139" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7260,7 +7299,7 @@
       <c r="B140">
         <v>2</v>
       </c>
-      <c r="C140" t="str">
+      <c r="C140" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7272,7 +7311,7 @@
       <c r="B141">
         <v>2</v>
       </c>
-      <c r="C141" t="str">
+      <c r="C141" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7284,7 +7323,7 @@
       <c r="B142">
         <v>2</v>
       </c>
-      <c r="C142" t="str">
+      <c r="C142" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7296,7 +7335,7 @@
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143" t="str">
+      <c r="C143" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7308,7 +7347,7 @@
       <c r="B144">
         <v>2</v>
       </c>
-      <c r="C144" t="str">
+      <c r="C144" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7320,7 +7359,7 @@
       <c r="B145">
         <v>2</v>
       </c>
-      <c r="C145" t="str">
+      <c r="C145" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7332,7 +7371,7 @@
       <c r="B146">
         <v>2</v>
       </c>
-      <c r="C146" t="str">
+      <c r="C146" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7344,7 +7383,7 @@
       <c r="B147">
         <v>2</v>
       </c>
-      <c r="C147" t="str">
+      <c r="C147" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7356,7 +7395,7 @@
       <c r="B148">
         <v>2</v>
       </c>
-      <c r="C148" t="str">
+      <c r="C148" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7368,7 +7407,7 @@
       <c r="B149">
         <v>2</v>
       </c>
-      <c r="C149" t="str">
+      <c r="C149" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7380,7 +7419,7 @@
       <c r="B150">
         <v>2</v>
       </c>
-      <c r="C150" t="str">
+      <c r="C150" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7392,7 +7431,7 @@
       <c r="B151">
         <v>2</v>
       </c>
-      <c r="C151" t="str">
+      <c r="C151" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7404,7 +7443,7 @@
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152" t="str">
+      <c r="C152" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7416,7 +7455,7 @@
       <c r="B153">
         <v>2</v>
       </c>
-      <c r="C153" t="str">
+      <c r="C153" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7428,7 +7467,7 @@
       <c r="B154">
         <v>2</v>
       </c>
-      <c r="C154" t="str">
+      <c r="C154" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7440,7 +7479,7 @@
       <c r="B155">
         <v>2</v>
       </c>
-      <c r="C155" t="str">
+      <c r="C155" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7452,7 +7491,7 @@
       <c r="B156">
         <v>2</v>
       </c>
-      <c r="C156" t="str">
+      <c r="C156" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7464,7 +7503,7 @@
       <c r="B157">
         <v>2</v>
       </c>
-      <c r="C157" t="str">
+      <c r="C157" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7476,7 +7515,7 @@
       <c r="B158">
         <v>2</v>
       </c>
-      <c r="C158" t="str">
+      <c r="C158" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7488,7 +7527,7 @@
       <c r="B159">
         <v>2</v>
       </c>
-      <c r="C159" t="str">
+      <c r="C159" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7500,7 +7539,7 @@
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" t="str">
+      <c r="C160" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7512,7 +7551,7 @@
       <c r="B161">
         <v>2</v>
       </c>
-      <c r="C161" t="str">
+      <c r="C161" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7524,7 +7563,7 @@
       <c r="B162">
         <v>2</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C162" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7536,7 +7575,7 @@
       <c r="B163">
         <v>2</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C163" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7548,7 +7587,7 @@
       <c r="B164">
         <v>2</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C164" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7560,7 +7599,7 @@
       <c r="B165">
         <v>2</v>
       </c>
-      <c r="C165" t="str">
+      <c r="C165" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7572,7 +7611,7 @@
       <c r="B166">
         <v>2</v>
       </c>
-      <c r="C166" t="str">
+      <c r="C166" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7584,7 +7623,7 @@
       <c r="B167">
         <v>2</v>
       </c>
-      <c r="C167" t="str">
+      <c r="C167" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7596,7 +7635,7 @@
       <c r="B168">
         <v>2</v>
       </c>
-      <c r="C168" t="str">
+      <c r="C168" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7608,7 +7647,7 @@
       <c r="B169">
         <v>2</v>
       </c>
-      <c r="C169" t="str">
+      <c r="C169" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7620,7 +7659,7 @@
       <c r="B170">
         <v>2</v>
       </c>
-      <c r="C170" t="str">
+      <c r="C170" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7632,7 +7671,7 @@
       <c r="B171">
         <v>2</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C171" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7644,7 +7683,7 @@
       <c r="B172">
         <v>2</v>
       </c>
-      <c r="C172" t="str">
+      <c r="C172" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7656,7 +7695,7 @@
       <c r="B173">
         <v>2</v>
       </c>
-      <c r="C173" t="str">
+      <c r="C173" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7668,7 +7707,7 @@
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174" t="str">
+      <c r="C174" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7680,7 +7719,7 @@
       <c r="B175">
         <v>2</v>
       </c>
-      <c r="C175" t="str">
+      <c r="C175" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7692,7 +7731,7 @@
       <c r="B176">
         <v>2</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C176" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7704,7 +7743,7 @@
       <c r="B177">
         <v>2</v>
       </c>
-      <c r="C177" t="str">
+      <c r="C177" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7716,7 +7755,7 @@
       <c r="B178">
         <v>2</v>
       </c>
-      <c r="C178" t="str">
+      <c r="C178" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7728,7 +7767,7 @@
       <c r="B179">
         <v>2</v>
       </c>
-      <c r="C179" t="str">
+      <c r="C179" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7740,7 +7779,7 @@
       <c r="B180">
         <v>1</v>
       </c>
-      <c r="C180" t="str">
+      <c r="C180" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7752,7 +7791,7 @@
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181" t="str">
+      <c r="C181" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7764,7 +7803,7 @@
       <c r="B182">
         <v>2</v>
       </c>
-      <c r="C182" t="str">
+      <c r="C182" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7776,7 +7815,7 @@
       <c r="B183">
         <v>2</v>
       </c>
-      <c r="C183" t="str">
+      <c r="C183" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7788,7 +7827,7 @@
       <c r="B184">
         <v>1</v>
       </c>
-      <c r="C184" t="str">
+      <c r="C184" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7800,7 +7839,7 @@
       <c r="B185">
         <v>1</v>
       </c>
-      <c r="C185" t="str">
+      <c r="C185" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7812,7 +7851,7 @@
       <c r="B186">
         <v>2</v>
       </c>
-      <c r="C186" t="str">
+      <c r="C186" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7824,7 +7863,7 @@
       <c r="B187">
         <v>2</v>
       </c>
-      <c r="C187" t="str">
+      <c r="C187" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7836,7 +7875,7 @@
       <c r="B188">
         <v>2</v>
       </c>
-      <c r="C188" t="str">
+      <c r="C188" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7848,7 +7887,7 @@
       <c r="B189">
         <v>2</v>
       </c>
-      <c r="C189" t="str">
+      <c r="C189" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7860,7 +7899,7 @@
       <c r="B190">
         <v>2</v>
       </c>
-      <c r="C190" t="str">
+      <c r="C190" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7872,7 +7911,7 @@
       <c r="B191">
         <v>1</v>
       </c>
-      <c r="C191" t="str">
+      <c r="C191" s="5" t="str">
         <f t="shared" si="2"/>
         <v>RELEVANTE</v>
       </c>
@@ -7884,7 +7923,7 @@
       <c r="B192">
         <v>2</v>
       </c>
-      <c r="C192" t="str">
+      <c r="C192" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7896,7 +7935,7 @@
       <c r="B193">
         <v>2</v>
       </c>
-      <c r="C193" t="str">
+      <c r="C193" s="5" t="str">
         <f t="shared" si="2"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7908,8 +7947,8 @@
       <c r="B194">
         <v>2</v>
       </c>
-      <c r="C194" t="str">
-        <f t="shared" ref="C194:C257" si="3" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
+      <c r="C194" s="5" t="str">
+        <f t="shared" ref="C194:C201" si="3" xml:space="preserve"> IF(B:B=1,"RELEVANTE","IRRELEVANTE")</f>
         <v>IRRELEVANTE</v>
       </c>
     </row>
@@ -7920,7 +7959,7 @@
       <c r="B195">
         <v>2</v>
       </c>
-      <c r="C195" t="str">
+      <c r="C195" s="5" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7932,7 +7971,7 @@
       <c r="B196">
         <v>1</v>
       </c>
-      <c r="C196" t="str">
+      <c r="C196" s="5" t="str">
         <f t="shared" si="3"/>
         <v>RELEVANTE</v>
       </c>
@@ -7944,7 +7983,7 @@
       <c r="B197">
         <v>1</v>
       </c>
-      <c r="C197" t="str">
+      <c r="C197" s="5" t="str">
         <f t="shared" si="3"/>
         <v>RELEVANTE</v>
       </c>
@@ -7956,7 +7995,7 @@
       <c r="B198">
         <v>2</v>
       </c>
-      <c r="C198" t="str">
+      <c r="C198" s="5" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
       </c>
@@ -7968,7 +8007,7 @@
       <c r="B199">
         <v>1</v>
       </c>
-      <c r="C199" t="str">
+      <c r="C199" s="5" t="str">
         <f t="shared" si="3"/>
         <v>RELEVANTE</v>
       </c>
@@ -7980,7 +8019,7 @@
       <c r="B200">
         <v>1</v>
       </c>
-      <c r="C200" t="str">
+      <c r="C200" s="5" t="str">
         <f t="shared" si="3"/>
         <v>RELEVANTE</v>
       </c>
@@ -7992,12 +8031,13 @@
       <c r="B201">
         <v>2</v>
       </c>
-      <c r="C201" t="str">
+      <c r="C201" s="5" t="str">
         <f t="shared" si="3"/>
         <v>IRRELEVANTE</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>